--- a/CSharp Utils/CSharp Utils.Tests/Ressources/TestXlsxOpenXmlReader.xlsx
+++ b/CSharp Utils/CSharp Utils.Tests/Ressources/TestXlsxOpenXmlReader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\kevin\Documents\GitHub\C--Utils\CSharp Utils\CSharp Utils.Tests\Ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEC9CEC-E018-4B7E-BCDB-0B1D96D93B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA63D14-254B-4335-A6BE-AF34CE8A5D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5130" windowWidth="29040" windowHeight="16440" xr2:uid="{66B4A2FF-FA00-474E-93E7-83D937B13383}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Fraction</t>
   </si>
@@ -45,31 +45,34 @@
     <t>General Number</t>
   </si>
   <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Compatibility</t>
+  </si>
+  <si>
+    <t>DateShort</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Scientific</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Long Number</t>
+  </si>
+  <si>
     <t>Number</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Compatibility</t>
-  </si>
-  <si>
-    <t>DateShort</t>
-  </si>
-  <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>Scientific</t>
-  </si>
-  <si>
-    <t>Text</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -154,6 +157,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -178,13 +184,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B93741D6-5487-4F6E-A3D2-7E11B5499C34}" name="Tableau1" displayName="Tableau1" ref="A1:M2" totalsRowShown="0">
-  <autoFilter ref="A1:M2" xr:uid="{B93741D6-5487-4F6E-A3D2-7E11B5499C34}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B93741D6-5487-4F6E-A3D2-7E11B5499C34}" name="Tableau1" displayName="Tableau1" ref="A1:N2" totalsRowShown="0">
+  <autoFilter ref="A1:N2" xr:uid="{B93741D6-5487-4F6E-A3D2-7E11B5499C34}"/>
+  <tableColumns count="14">
     <tableColumn id="13" xr3:uid="{D9A1AF30-972C-44A0-8814-C5BF39FCE32A}" name="Empty"/>
-    <tableColumn id="1" xr3:uid="{03F62AE5-DD72-4A1A-8B27-DFB6DA9983A9}" name="General Text" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{7B9945D7-D255-4A54-9217-D35D3F1DB2CB}" name="General Number" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{DF2B0470-0DC8-4DDF-8AE7-DCD9FFDB632F}" name="Number" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{03F62AE5-DD72-4A1A-8B27-DFB6DA9983A9}" name="General Text" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{7B9945D7-D255-4A54-9217-D35D3F1DB2CB}" name="General Number" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{8599FA9E-D69D-44C1-896B-D45B30178210}" name="Number" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{DF2B0470-0DC8-4DDF-8AE7-DCD9FFDB632F}" name="Long Number" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{0F2BCF6B-5FA8-4342-A6B9-68EA5FFFC057}" name="Currency" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{30D989FC-B170-4411-8591-DE99AA8AC046}" name="Compatibility" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{302D27C6-5234-485B-A92B-70065F4C042F}" name="DateShort" dataDxfId="6"/>
@@ -496,29 +503,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D388C833-03BD-486C-8D2E-224B758B4610}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -529,71 +537,77 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>123456789.123456</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="6">
         <v>123456789.123456</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>1.5</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>0.5</v>
       </c>
-      <c r="J2" s="9">
+      <c r="K2" s="9">
         <v>0.5</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>0.5</v>
       </c>
-      <c r="L2" s="10">
+      <c r="M2" s="10">
         <v>123456789.123456</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
     </row>

--- a/CSharp Utils/CSharp Utils.Tests/Ressources/TestXlsxOpenXmlReader.xlsx
+++ b/CSharp Utils/CSharp Utils.Tests/Ressources/TestXlsxOpenXmlReader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\kevin\Documents\GitHub\C--Utils\CSharp Utils\CSharp Utils.Tests\Ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA63D14-254B-4335-A6BE-AF34CE8A5D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F64537-05E0-4911-9FCC-4A8B862162ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5130" windowWidth="29040" windowHeight="16440" xr2:uid="{66B4A2FF-FA00-474E-93E7-83D937B13383}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>Compatibility</t>
-  </si>
-  <si>
     <t>DateShort</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>Accounting</t>
   </si>
 </sst>
 </file>
@@ -193,7 +193,7 @@
     <tableColumn id="14" xr3:uid="{8599FA9E-D69D-44C1-896B-D45B30178210}" name="Number" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{DF2B0470-0DC8-4DDF-8AE7-DCD9FFDB632F}" name="Long Number" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{0F2BCF6B-5FA8-4342-A6B9-68EA5FFFC057}" name="Currency" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{30D989FC-B170-4411-8591-DE99AA8AC046}" name="Compatibility" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{30D989FC-B170-4411-8591-DE99AA8AC046}" name="Accounting" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{302D27C6-5234-485B-A92B-70065F4C042F}" name="DateShort" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{3F974D12-D61C-4C5A-BE05-D444F9FD4020}" name="DateTime" dataDxfId="5"/>
     <tableColumn id="8" xr3:uid="{AA666353-1009-486B-B311-1F65E283E090}" name="Time" dataDxfId="4"/>
@@ -506,7 +506,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,37 +537,37 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
       </c>
       <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
